--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/LongTerm/Binance_BTC-USDT_1w/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/LongTerm/Binance_BTC-USDT_1w/trades.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,930 +446,2274 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>139858</v>
+        <v>86690</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>134</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.00354279926</v>
+        <v>0.005715709999999999</v>
       </c>
       <c r="E2">
-        <v>0.006687875443192401</v>
+        <v>0.01165401569161038</v>
       </c>
       <c r="F2">
-        <v>439.8640648289228</v>
+        <v>514.7917204057039</v>
       </c>
       <c r="G2">
-        <v>0.8877376199949869</v>
+        <v>1.038944539105445</v>
       </c>
       <c r="H2" s="2">
-        <v>43486</v>
+        <v>43024</v>
       </c>
       <c r="I2" s="2">
-        <v>43899</v>
+        <v>43108</v>
       </c>
       <c r="J2" s="3">
-        <v>413</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>64343</v>
+        <v>106681</v>
       </c>
       <c r="B3">
-        <v>141</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>0.0077007931</v>
+        <v>0.004644639999999999</v>
       </c>
       <c r="E3">
-        <v>0.04312825793734487</v>
+        <v>0.01165401569161038</v>
       </c>
       <c r="F3">
-        <v>2279.509370029281</v>
+        <v>747.767208156687</v>
       </c>
       <c r="G3">
-        <v>4.600495608347778</v>
+        <v>1.509132180666399</v>
       </c>
       <c r="H3" s="2">
-        <v>43948</v>
+        <v>43017</v>
       </c>
       <c r="I3" s="2">
-        <v>44529</v>
+        <v>43108</v>
       </c>
       <c r="J3" s="3">
-        <v>581</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>69515</v>
+        <v>56333</v>
       </c>
       <c r="B4">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>0.007128521399999999</v>
+        <v>0.0087944857</v>
       </c>
       <c r="E4">
-        <v>0.04312825793734487</v>
+        <v>0.01001941920631855</v>
       </c>
       <c r="F4">
-        <v>2502.521685393529</v>
+        <v>69.0041792114431</v>
       </c>
       <c r="G4">
-        <v>5.050098683486435</v>
+        <v>0.1392842683590416</v>
       </c>
       <c r="H4" s="2">
-        <v>43941</v>
+        <v>43213</v>
       </c>
       <c r="I4" s="2">
-        <v>44529</v>
+        <v>43668</v>
       </c>
       <c r="J4" s="3">
-        <v>588</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>75112</v>
+        <v>52553</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="D5">
-        <v>0.006596710119999999</v>
+        <v>0.009426457040000001</v>
       </c>
       <c r="E5">
-        <v>0.04312825793734487</v>
+        <v>0.01129966626061579</v>
       </c>
       <c r="F5">
-        <v>2743.957619656408</v>
+        <v>98.44276417102154</v>
       </c>
       <c r="G5">
-        <v>5.537843432984573</v>
+        <v>0.1987182684509203</v>
       </c>
       <c r="H5" s="2">
-        <v>43395</v>
+        <v>43220</v>
       </c>
       <c r="I5" s="2">
-        <v>44529</v>
+        <v>44074</v>
       </c>
       <c r="J5" s="3">
-        <v>1134</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>73792</v>
+        <v>51921</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>224</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>0.006713516809999999</v>
+        <v>0.009543103569999999</v>
       </c>
       <c r="E6">
-        <v>0.04312825793734487</v>
+        <v>0.01129966626061579</v>
       </c>
       <c r="F6">
-        <v>2687.116577269033</v>
+        <v>91.20249145946244</v>
       </c>
       <c r="G6">
-        <v>5.42409323725889</v>
+        <v>0.184066187454758</v>
       </c>
       <c r="H6" s="2">
-        <v>43367</v>
+        <v>43171</v>
       </c>
       <c r="I6" s="2">
-        <v>44529</v>
+        <v>44074</v>
       </c>
       <c r="J6" s="3">
-        <v>1162</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>17698</v>
+        <v>43539</v>
       </c>
       <c r="B7">
-        <v>293</v>
+        <v>165</v>
       </c>
       <c r="C7">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>0.02799601804999999</v>
+        <v>0.01138038902</v>
       </c>
       <c r="E7">
-        <v>0.04173235</v>
+        <v>0.05716871257704149</v>
       </c>
       <c r="F7">
-        <v>243.1056028511001</v>
+        <v>1993.57781935003</v>
       </c>
       <c r="G7">
-        <v>0.4906530609269988</v>
+        <v>4.023440980494839</v>
       </c>
       <c r="H7" s="2">
-        <v>45012</v>
+        <v>44116</v>
       </c>
       <c r="I7" s="2">
-        <v>45306</v>
+        <v>44298</v>
       </c>
       <c r="J7" s="3">
-        <v>294</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>17695</v>
+        <v>46406</v>
       </c>
       <c r="B8">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="C8">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="D8">
-        <v>0.02800084287</v>
+        <v>0.01067728662</v>
       </c>
       <c r="E8">
-        <v>0.04173235</v>
+        <v>0.05716871257704149</v>
       </c>
       <c r="F8">
-        <v>242.9790186653501</v>
+        <v>2157.481112962467</v>
       </c>
       <c r="G8">
-        <v>0.4903962067767571</v>
+        <v>4.354236016288705</v>
       </c>
       <c r="H8" s="2">
-        <v>45005</v>
+        <v>44109</v>
       </c>
       <c r="I8" s="2">
-        <v>45306</v>
+        <v>44298</v>
       </c>
       <c r="J8" s="3">
-        <v>301</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>22068</v>
+        <v>42267</v>
       </c>
       <c r="B9">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="C9">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="D9">
-        <v>0.02245267024</v>
+        <v>0.01172288117</v>
       </c>
       <c r="E9">
-        <v>0.04173235</v>
+        <v>0.05716871257704149</v>
       </c>
       <c r="F9">
-        <v>425.4639729436801</v>
+        <v>1920.858956081423</v>
       </c>
       <c r="G9">
-        <v>0.8586809298812383</v>
+        <v>3.876677648438664</v>
       </c>
       <c r="H9" s="2">
-        <v>44991</v>
+        <v>44074</v>
       </c>
       <c r="I9" s="2">
-        <v>45306</v>
+        <v>44298</v>
       </c>
       <c r="J9" s="3">
-        <v>315</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>21014</v>
+        <v>42857</v>
       </c>
       <c r="B10">
-        <v>289</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="D10">
-        <v>0.02357840484999999</v>
+        <v>0.01155061908</v>
       </c>
       <c r="E10">
-        <v>0.04173235</v>
+        <v>0.05716871257704149</v>
       </c>
       <c r="F10">
-        <v>381.4870033821001</v>
+        <v>1955.054633002708</v>
       </c>
       <c r="G10">
-        <v>0.7699394961402577</v>
+        <v>3.949406796388051</v>
       </c>
       <c r="H10" s="2">
-        <v>44984</v>
+        <v>43689</v>
       </c>
       <c r="I10" s="2">
-        <v>45306</v>
+        <v>44298</v>
       </c>
       <c r="J10" s="3">
-        <v>322</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>20394</v>
+        <v>42987</v>
       </c>
       <c r="B11">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="D11">
-        <v>0.02429678250999999</v>
+        <v>0.011526515</v>
       </c>
       <c r="E11">
-        <v>0.04173235</v>
+        <v>0.05716871257704149</v>
       </c>
       <c r="F11">
-        <v>355.5809633910602</v>
+        <v>1962.021147244283</v>
       </c>
       <c r="G11">
-        <v>0.7176080817624282</v>
+        <v>3.959756923670469</v>
       </c>
       <c r="H11" s="2">
-        <v>44977</v>
+        <v>43164</v>
       </c>
       <c r="I11" s="2">
-        <v>45306</v>
+        <v>44298</v>
       </c>
       <c r="J11" s="3">
-        <v>329</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>22723</v>
+        <v>12423</v>
       </c>
       <c r="B12">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="C12">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="D12">
-        <v>0.02180415237</v>
+        <v>0.03989012027</v>
       </c>
       <c r="E12">
-        <v>0.04173235</v>
+        <v>0.04546379302257042</v>
       </c>
       <c r="F12">
-        <v>452.8284347464901</v>
+        <v>69.24173660518238</v>
       </c>
       <c r="G12">
-        <v>0.9139634181523566</v>
+        <v>0.1397256442157733</v>
       </c>
       <c r="H12" s="2">
-        <v>44970</v>
+        <v>44410</v>
       </c>
       <c r="I12" s="2">
-        <v>45306</v>
+        <v>44445</v>
       </c>
       <c r="J12" s="3">
-        <v>336</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>21584</v>
+        <v>13904</v>
       </c>
       <c r="B13">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C13">
-        <v>335</v>
+        <v>212</v>
       </c>
       <c r="D13">
-        <v>0.02295584291</v>
+        <v>0.03563577017</v>
       </c>
       <c r="E13">
-        <v>0.04173235</v>
+        <v>0.04546379302257042</v>
       </c>
       <c r="F13">
-        <v>405.2721290305601</v>
+        <v>136.6488297421392</v>
       </c>
       <c r="G13">
-        <v>0.8179402152042345</v>
+        <v>0.2757909484118335</v>
       </c>
       <c r="H13" s="2">
-        <v>44963</v>
+        <v>44368</v>
       </c>
       <c r="I13" s="2">
-        <v>45306</v>
+        <v>44445</v>
       </c>
       <c r="J13" s="3">
-        <v>343</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>20848</v>
+        <v>9056</v>
       </c>
       <c r="B14">
-        <v>285</v>
+        <v>217</v>
       </c>
       <c r="C14">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>0.02376711337</v>
+        <v>0.05471366900999999</v>
       </c>
       <c r="E14">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F14">
-        <v>374.53925326224</v>
+        <v>63.19577593779956</v>
       </c>
       <c r="G14">
-        <v>0.7558863523021098</v>
+        <v>0.1275427562230049</v>
       </c>
       <c r="H14" s="2">
-        <v>44956</v>
+        <v>44480</v>
       </c>
       <c r="I14" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J14" s="3">
-        <v>350</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>21798</v>
+        <v>10754</v>
       </c>
       <c r="B15">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="C15">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D15">
-        <v>0.02272872602</v>
+        <v>0.04607125523</v>
       </c>
       <c r="E15">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F15">
-        <v>414.24099551604</v>
+        <v>167.9855017162569</v>
       </c>
       <c r="G15">
-        <v>0.8361059904227752</v>
+        <v>0.3390562260703702</v>
       </c>
       <c r="H15" s="2">
-        <v>44949</v>
+        <v>44452</v>
       </c>
       <c r="I15" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J15" s="3">
-        <v>357</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>23716</v>
+        <v>9563</v>
       </c>
       <c r="B16">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="C16">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D16">
-        <v>0.02089386299</v>
+        <v>0.05180863687999999</v>
       </c>
       <c r="E16">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F16">
-        <v>494.2055579291601</v>
+        <v>94.5146125963341</v>
       </c>
       <c r="G16">
-        <v>0.9973496533395239</v>
+        <v>0.1907667306804581</v>
       </c>
       <c r="H16" s="2">
-        <v>44942</v>
+        <v>44445</v>
       </c>
       <c r="I16" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J16" s="3">
-        <v>364</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>28900</v>
+        <v>10150</v>
       </c>
       <c r="B17">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="C17">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D17">
-        <v>0.01714495783</v>
+        <v>0.04881660783999999</v>
       </c>
       <c r="E17">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F17">
-        <v>710.5756337130001</v>
+        <v>130.6852421838774</v>
       </c>
       <c r="G17">
-        <v>1.434088809887729</v>
+        <v>0.2637502663193776</v>
       </c>
       <c r="H17" s="2">
-        <v>44935</v>
+        <v>44438</v>
       </c>
       <c r="I17" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J17" s="3">
-        <v>371</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>29789</v>
+        <v>10052</v>
       </c>
       <c r="B18">
-        <v>281</v>
+        <v>210</v>
       </c>
       <c r="C18">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D18">
-        <v>0.01663378716999999</v>
+        <v>0.04928845922</v>
       </c>
       <c r="E18">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F18">
-        <v>747.6610881428702</v>
+        <v>124.6804035668937</v>
       </c>
       <c r="G18">
-        <v>1.508890463337581</v>
+        <v>0.2516520527299333</v>
       </c>
       <c r="H18" s="2">
-        <v>44928</v>
+        <v>44431</v>
       </c>
       <c r="I18" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J18" s="3">
-        <v>378</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>29408</v>
+        <v>10537</v>
       </c>
       <c r="B19">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="C19">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D19">
-        <v>0.01684894211</v>
+        <v>0.04702079382</v>
       </c>
       <c r="E19">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F19">
-        <v>731.7712592291201</v>
+        <v>154.5905117269189</v>
       </c>
       <c r="G19">
-        <v>1.476852833106447</v>
+        <v>0.3120153052875152</v>
       </c>
       <c r="H19" s="2">
-        <v>44921</v>
+        <v>44424</v>
       </c>
       <c r="I19" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J19" s="3">
-        <v>385</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>23677</v>
+        <v>11302</v>
       </c>
       <c r="B20">
-        <v>273</v>
+        <v>208</v>
       </c>
       <c r="C20">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D20">
-        <v>0.02092648558</v>
+        <v>0.04383815435999999</v>
       </c>
       <c r="E20">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F20">
-        <v>492.62045187234</v>
+        <v>201.7841765178745</v>
       </c>
       <c r="G20">
-        <v>0.9942359571300743</v>
+        <v>0.4072673008081586</v>
       </c>
       <c r="H20" s="2">
-        <v>44872</v>
+        <v>44417</v>
       </c>
       <c r="I20" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J20" s="3">
-        <v>434</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>23997</v>
+        <v>8815</v>
       </c>
       <c r="B21">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="C21">
-        <v>335</v>
+        <v>222</v>
       </c>
       <c r="D21">
-        <v>0.02064810748</v>
+        <v>0.05620616000999999</v>
       </c>
       <c r="E21">
-        <v>0.04173235</v>
+        <v>0.0616920011586086</v>
       </c>
       <c r="F21">
-        <v>505.9585677524401</v>
+        <v>48.35768972498489</v>
       </c>
       <c r="G21">
-        <v>1.021122276723058</v>
+        <v>0.09760213378093407</v>
       </c>
       <c r="H21" s="2">
-        <v>44865</v>
+        <v>44305</v>
       </c>
       <c r="I21" s="2">
-        <v>45306</v>
+        <v>44515</v>
       </c>
       <c r="J21" s="3">
-        <v>441</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>23006</v>
+        <v>29408</v>
       </c>
       <c r="B22">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C22">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D22">
-        <v>0.0215382167</v>
+        <v>0.01684894211</v>
       </c>
       <c r="E22">
-        <v>0.04173235</v>
+        <v>0.02209275378258632</v>
       </c>
       <c r="F22">
-        <v>464.5862306998001</v>
+        <v>154.2100136674185</v>
       </c>
       <c r="G22">
-        <v>0.9375954184730626</v>
+        <v>0.3112249800819289</v>
       </c>
       <c r="H22" s="2">
-        <v>44795</v>
+        <v>44921</v>
       </c>
       <c r="I22" s="2">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="J22" s="3">
-        <v>511</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>20365</v>
+        <v>29573</v>
       </c>
       <c r="B23">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="C23">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D23">
-        <v>0.02432955525</v>
+        <v>0.016755739</v>
       </c>
       <c r="E23">
-        <v>0.04173235</v>
+        <v>0.02209275378258632</v>
       </c>
       <c r="F23">
-        <v>354.40791508375</v>
+        <v>157.8315381654252</v>
       </c>
       <c r="G23">
-        <v>0.7152944051453634</v>
+        <v>0.3185186151793318</v>
       </c>
       <c r="H23" s="2">
-        <v>44788</v>
+        <v>44914</v>
       </c>
       <c r="I23" s="2">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="J23" s="3">
-        <v>518</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>21359</v>
+        <v>28972</v>
       </c>
       <c r="B24">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="C24">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D24">
-        <v>0.02319756439</v>
+        <v>0.01710213505</v>
       </c>
       <c r="E24">
-        <v>0.04173235</v>
+        <v>0.02209275378258632</v>
       </c>
       <c r="F24">
-        <v>395.8844858439901</v>
+        <v>144.5882059204909</v>
       </c>
       <c r="G24">
-        <v>0.7989970541040927</v>
+        <v>0.2918126139219279</v>
       </c>
       <c r="H24" s="2">
-        <v>44781</v>
+        <v>44907</v>
       </c>
       <c r="I24" s="2">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="J24" s="3">
-        <v>525</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>21250</v>
+        <v>25293</v>
       </c>
       <c r="B25">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C25">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D25">
-        <v>0.02331965636</v>
+        <v>0.0195899704</v>
       </c>
       <c r="E25">
-        <v>0.04173235</v>
+        <v>0.02209275378258632</v>
       </c>
       <c r="F25">
-        <v>391.2697398500001</v>
+        <v>63.30290009575575</v>
       </c>
       <c r="G25">
-        <v>0.7895782577475341</v>
+        <v>0.1277584055250189</v>
       </c>
       <c r="H25" s="2">
-        <v>44774</v>
+        <v>44858</v>
       </c>
       <c r="I25" s="2">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="J25" s="3">
-        <v>532</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>12475</v>
+        <v>25696</v>
       </c>
       <c r="B26">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="C26">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="D26">
-        <v>0.03971778811</v>
+        <v>0.01928224298</v>
       </c>
       <c r="E26">
-        <v>0.04173235</v>
+        <v>0.02209275378258632</v>
       </c>
       <c r="F26">
-        <v>25.13165957775003</v>
+        <v>72.21888558325814</v>
       </c>
       <c r="G26">
-        <v>0.05072190536946808</v>
+        <v>0.1457564249917114</v>
       </c>
       <c r="H26" s="2">
-        <v>44669</v>
+        <v>44851</v>
       </c>
       <c r="I26" s="2">
-        <v>45306</v>
+        <v>44984</v>
       </c>
       <c r="J26" s="3">
-        <v>637</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>11741</v>
+        <v>22068</v>
       </c>
       <c r="B27">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="C27">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D27">
-        <v>0.04220100884999999</v>
+        <v>0.02245267024</v>
       </c>
       <c r="E27">
-        <v>0.04173235</v>
+        <v>0.02792936613183419</v>
       </c>
       <c r="F27">
-        <v>-5.502523557849892</v>
+        <v>120.8597249409971</v>
       </c>
       <c r="G27">
-        <v>-0.01110539446262526</v>
+        <v>0.2439218067736695</v>
       </c>
       <c r="H27" s="2">
-        <v>44662</v>
+        <v>44991</v>
       </c>
       <c r="I27" s="2">
-        <v>45306</v>
+        <v>45033</v>
       </c>
       <c r="J27" s="3">
-        <v>644</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>10666</v>
+        <v>21014</v>
       </c>
       <c r="B28">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c r="C28">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D28">
-        <v>0.04645376736</v>
+        <v>0.02357840484999999</v>
       </c>
       <c r="E28">
-        <v>0.04173235</v>
+        <v>0.02792936613183419</v>
       </c>
       <c r="F28">
-        <v>-50.35863756175993</v>
+        <v>91.43110037646385</v>
       </c>
       <c r="G28">
-        <v>-0.1016369097345907</v>
+        <v>0.1845316216051909</v>
       </c>
       <c r="H28" s="2">
-        <v>44655</v>
+        <v>44984</v>
       </c>
       <c r="I28" s="2">
-        <v>45306</v>
+        <v>45033</v>
       </c>
       <c r="J28" s="3">
-        <v>651</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>10570</v>
+        <v>20848</v>
       </c>
       <c r="B29">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="C29">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="D29">
-        <v>0.04687458776</v>
+        <v>0.02376711337</v>
       </c>
       <c r="E29">
-        <v>0.04173235</v>
+        <v>0.02792936613183419</v>
       </c>
       <c r="F29">
-        <v>-54.35345312319994</v>
+        <v>86.77464557871929</v>
       </c>
       <c r="G29">
-        <v>-0.109702036982778</v>
+        <v>0.1751265581577943</v>
       </c>
       <c r="H29" s="2">
-        <v>44648</v>
+        <v>44956</v>
       </c>
       <c r="I29" s="2">
-        <v>45306</v>
+        <v>45033</v>
       </c>
       <c r="J29" s="3">
-        <v>658</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>12883</v>
+        <v>21798</v>
       </c>
       <c r="B30">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="C30">
+        <v>296</v>
+      </c>
+      <c r="D30">
+        <v>0.02272872602</v>
+      </c>
+      <c r="E30">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F30">
+        <v>113.3635531577618</v>
+      </c>
+      <c r="G30">
+        <v>0.2288135334667647</v>
+      </c>
+      <c r="H30" s="2">
+        <v>44949</v>
+      </c>
+      <c r="I30" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J30" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>23716</v>
+      </c>
+      <c r="B31">
+        <v>283</v>
+      </c>
+      <c r="C31">
+        <v>296</v>
+      </c>
+      <c r="D31">
+        <v>0.02089386299</v>
+      </c>
+      <c r="E31">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F31">
+        <v>166.8539925117398</v>
+      </c>
+      <c r="G31">
+        <v>0.3367258196917178</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44942</v>
+      </c>
+      <c r="I31" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J31" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>23677</v>
+      </c>
+      <c r="B32">
+        <v>273</v>
+      </c>
+      <c r="C32">
+        <v>296</v>
+      </c>
+      <c r="D32">
+        <v>0.02092648558</v>
+      </c>
+      <c r="E32">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F32">
+        <v>165.8072028257782</v>
+      </c>
+      <c r="G32">
+        <v>0.3346419791829274</v>
+      </c>
+      <c r="H32" s="2">
+        <v>44872</v>
+      </c>
+      <c r="I32" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J32" s="3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33">
+        <v>23997</v>
+      </c>
+      <c r="B33">
+        <v>272</v>
+      </c>
+      <c r="C33">
+        <v>296</v>
+      </c>
+      <c r="D33">
+        <v>0.02064810748</v>
+      </c>
+      <c r="E33">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F33">
+        <v>174.7283638680652</v>
+      </c>
+      <c r="G33">
+        <v>0.3526356427041515</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44865</v>
+      </c>
+      <c r="I33" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J33" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34">
+        <v>20365</v>
+      </c>
+      <c r="B34">
+        <v>261</v>
+      </c>
+      <c r="C34">
+        <v>296</v>
+      </c>
+      <c r="D34">
+        <v>0.02432955525</v>
+      </c>
+      <c r="E34">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F34">
+        <v>73.31014860855336</v>
+      </c>
+      <c r="G34">
+        <v>0.1479604063799809</v>
+      </c>
+      <c r="H34" s="2">
+        <v>44788</v>
+      </c>
+      <c r="I34" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J34" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>21359</v>
+      </c>
+      <c r="B35">
+        <v>260</v>
+      </c>
+      <c r="C35">
+        <v>296</v>
+      </c>
+      <c r="D35">
+        <v>0.02319756439</v>
+      </c>
+      <c r="E35">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F35">
+        <v>101.0665534038366</v>
+      </c>
+      <c r="G35">
+        <v>0.2039783859323603</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44781</v>
+      </c>
+      <c r="I35" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J35" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>21250</v>
+      </c>
+      <c r="B36">
+        <v>259</v>
+      </c>
+      <c r="C36">
+        <v>296</v>
+      </c>
+      <c r="D36">
+        <v>0.02331965636</v>
+      </c>
+      <c r="E36">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F36">
+        <v>97.95633265147661</v>
+      </c>
+      <c r="G36">
+        <v>0.1976748585258394</v>
+      </c>
+      <c r="H36" s="2">
+        <v>44774</v>
+      </c>
+      <c r="I36" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J36" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>21922</v>
+      </c>
+      <c r="B37">
+        <v>258</v>
+      </c>
+      <c r="C37">
+        <v>296</v>
+      </c>
+      <c r="D37">
+        <v>0.02259970713</v>
+      </c>
+      <c r="E37">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F37">
+        <v>116.8367846382093</v>
+      </c>
+      <c r="G37">
+        <v>0.2358286756185144</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44767</v>
+      </c>
+      <c r="I37" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J37" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>23800</v>
+      </c>
+      <c r="B38">
+        <v>257</v>
+      </c>
+      <c r="C38">
+        <v>296</v>
+      </c>
+      <c r="D38">
+        <v>0.02082037958</v>
+      </c>
+      <c r="E38">
+        <v>0.02792936613183419</v>
+      </c>
+      <c r="F38">
+        <v>169.1938799336538</v>
+      </c>
+      <c r="G38">
+        <v>0.341443657379958</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44760</v>
+      </c>
+      <c r="I38" s="2">
+        <v>45033</v>
+      </c>
+      <c r="J38" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>17940</v>
+      </c>
+      <c r="B39">
+        <v>297</v>
+      </c>
+      <c r="C39">
+        <v>310</v>
+      </c>
+      <c r="D39">
+        <v>0.02761818059</v>
+      </c>
+      <c r="E39">
+        <v>0.02997280550746387</v>
+      </c>
+      <c r="F39">
+        <v>42.2419710193018</v>
+      </c>
+      <c r="G39">
+        <v>0.0852563372084123</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45040</v>
+      </c>
+      <c r="I39" s="2">
+        <v>45131</v>
+      </c>
+      <c r="J39" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>13355</v>
+      </c>
+      <c r="B40">
+        <v>326</v>
+      </c>
+      <c r="C40">
+        <v>334</v>
+      </c>
+      <c r="D40">
+        <v>0.03710119412999999</v>
+      </c>
+      <c r="E40">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F40">
+        <v>64.36887074604982</v>
+      </c>
+      <c r="G40">
+        <v>0.1299104567986389</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45243</v>
+      </c>
+      <c r="I40" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J40" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41">
+        <v>14138</v>
+      </c>
+      <c r="B41">
+        <v>325</v>
+      </c>
+      <c r="C41">
+        <v>334</v>
+      </c>
+      <c r="D41">
+        <v>0.03504690189</v>
+      </c>
+      <c r="E41">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F41">
+        <v>97.18638373461997</v>
+      </c>
+      <c r="G41">
+        <v>0.1961407413065714</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45236</v>
+      </c>
+      <c r="I41" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J41" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42">
+        <v>14337</v>
+      </c>
+      <c r="B42">
+        <v>324</v>
+      </c>
+      <c r="C42">
+        <v>334</v>
+      </c>
+      <c r="D42">
+        <v>0.03456040587999999</v>
+      </c>
+      <c r="E42">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F42">
+        <v>105.5292279681135</v>
+      </c>
+      <c r="G42">
+        <v>0.2129784399164958</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45229</v>
+      </c>
+      <c r="I42" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J42" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43">
+        <v>16504</v>
+      </c>
+      <c r="B43">
+        <v>323</v>
+      </c>
+      <c r="C43">
+        <v>334</v>
+      </c>
+      <c r="D43">
+        <v>0.03002245245999999</v>
+      </c>
+      <c r="E43">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F43">
+        <v>196.374077627843</v>
+      </c>
+      <c r="G43">
+        <v>0.3963225443709566</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45222</v>
+      </c>
+      <c r="I43" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J43" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44">
+        <v>18229</v>
+      </c>
+      <c r="B44">
+        <v>322</v>
+      </c>
+      <c r="C44">
+        <v>334</v>
+      </c>
+      <c r="D44">
+        <v>0.02718129414</v>
+      </c>
+      <c r="E44">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F44">
+        <v>268.6905940820486</v>
+      </c>
+      <c r="G44">
+        <v>0.5422748818097034</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45215</v>
+      </c>
+      <c r="I44" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J44" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45">
+        <v>17731</v>
+      </c>
+      <c r="B45">
+        <v>321</v>
+      </c>
+      <c r="C45">
+        <v>334</v>
+      </c>
+      <c r="D45">
+        <v>0.02794497706</v>
+      </c>
+      <c r="E45">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F45">
+        <v>247.8093451600613</v>
+      </c>
+      <c r="G45">
+        <v>0.500127451069136</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45208</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J45" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46">
+        <v>17683</v>
+      </c>
+      <c r="B46">
+        <v>320</v>
+      </c>
+      <c r="C46">
+        <v>334</v>
+      </c>
+      <c r="D46">
+        <v>0.02802057258</v>
+      </c>
+      <c r="E46">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F46">
+        <v>245.8017391728355</v>
+      </c>
+      <c r="G46">
+        <v>0.4960803205400905</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45201</v>
+      </c>
+      <c r="I46" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J46" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47">
+        <v>18858</v>
+      </c>
+      <c r="B47">
+        <v>319</v>
+      </c>
+      <c r="C47">
+        <v>334</v>
+      </c>
+      <c r="D47">
+        <v>0.02627463839</v>
+      </c>
+      <c r="E47">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F47">
+        <v>295.0596003148194</v>
+      </c>
+      <c r="G47">
+        <v>0.5954939735025324</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45194</v>
+      </c>
+      <c r="I47" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J47" s="3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48">
+        <v>18659</v>
+      </c>
+      <c r="B48">
+        <v>318</v>
+      </c>
+      <c r="C48">
+        <v>334</v>
+      </c>
+      <c r="D48">
+        <v>0.0265540275</v>
+      </c>
+      <c r="E48">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F48">
+        <v>286.7328475367059</v>
+      </c>
+      <c r="G48">
+        <v>0.5787069290036428</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45187</v>
+      </c>
+      <c r="I48" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J48" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49">
+        <v>16373</v>
+      </c>
+      <c r="B49">
+        <v>309</v>
+      </c>
+      <c r="C49">
+        <v>334</v>
+      </c>
+      <c r="D49">
+        <v>0.030262232</v>
+      </c>
+      <c r="E49">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F49">
+        <v>190.8894539275393</v>
+      </c>
+      <c r="G49">
+        <v>0.3852589328904517</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45124</v>
+      </c>
+      <c r="I49" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J49" s="3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50">
+        <v>16412</v>
+      </c>
+      <c r="B50">
+        <v>308</v>
+      </c>
+      <c r="C50">
+        <v>334</v>
+      </c>
+      <c r="D50">
+        <v>0.03019087071</v>
+      </c>
+      <c r="E50">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F50">
+        <v>192.5153284321002</v>
+      </c>
+      <c r="G50">
+        <v>0.3885332294612471</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45117</v>
+      </c>
+      <c r="I50" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J50" s="3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51">
+        <v>16167</v>
+      </c>
+      <c r="B51">
+        <v>307</v>
+      </c>
+      <c r="C51">
+        <v>334</v>
+      </c>
+      <c r="D51">
+        <v>0.03064763702</v>
+      </c>
+      <c r="E51">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F51">
+        <v>182.2568991565153</v>
+      </c>
+      <c r="G51">
+        <v>0.3678388053162629</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45110</v>
+      </c>
+      <c r="I51" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J51" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>16249</v>
+      </c>
+      <c r="B52">
+        <v>306</v>
+      </c>
+      <c r="C52">
+        <v>334</v>
+      </c>
+      <c r="D52">
+        <v>0.03049313266999999</v>
+      </c>
+      <c r="E52">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F52">
+        <v>185.6918583350161</v>
+      </c>
+      <c r="G52">
+        <v>0.3747694492683715</v>
+      </c>
+      <c r="H52" s="2">
+        <v>45103</v>
+      </c>
+      <c r="I52" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J52" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>16932</v>
+      </c>
+      <c r="B53">
+        <v>298</v>
+      </c>
+      <c r="C53">
+        <v>334</v>
+      </c>
+      <c r="D53">
+        <v>0.0292624332</v>
+      </c>
+      <c r="E53">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F53">
+        <v>214.3353137299659</v>
+      </c>
+      <c r="G53">
+        <v>0.4325885657110455</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45047</v>
+      </c>
+      <c r="I53" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J53" s="3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54">
+        <v>16334</v>
+      </c>
+      <c r="B54">
+        <v>296</v>
+      </c>
+      <c r="C54">
+        <v>334</v>
+      </c>
+      <c r="D54">
+        <v>0.03033496466</v>
+      </c>
+      <c r="E54">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F54">
+        <v>189.2467456460183</v>
+      </c>
+      <c r="G54">
+        <v>0.3819375653494919</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45033</v>
+      </c>
+      <c r="I54" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J54" s="3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55">
+        <v>17476</v>
+      </c>
+      <c r="B55">
+        <v>295</v>
+      </c>
+      <c r="C55">
+        <v>334</v>
+      </c>
+      <c r="D55">
+        <v>0.02835208376</v>
+      </c>
+      <c r="E55">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F55">
+        <v>237.1308556833245</v>
+      </c>
+      <c r="G55">
+        <v>0.4785871670690662</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45026</v>
+      </c>
+      <c r="I55" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J55" s="3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56">
+        <v>17570</v>
+      </c>
+      <c r="B56">
+        <v>294</v>
+      </c>
+      <c r="C56">
+        <v>334</v>
+      </c>
+      <c r="D56">
+        <v>0.02820004186999999</v>
+      </c>
+      <c r="E56">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F56">
+        <v>241.0777123746616</v>
+      </c>
+      <c r="G56">
+        <v>0.4865590413112135</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45019</v>
+      </c>
+      <c r="I56" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J56" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57">
+        <v>17698</v>
+      </c>
+      <c r="B57">
+        <v>293</v>
+      </c>
+      <c r="C57">
+        <v>334</v>
+      </c>
+      <c r="D57">
+        <v>0.02799601804999999</v>
+      </c>
+      <c r="E57">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F57">
+        <v>246.4448120641837</v>
+      </c>
+      <c r="G57">
+        <v>0.4973924910440355</v>
+      </c>
+      <c r="H57" s="2">
+        <v>45012</v>
+      </c>
+      <c r="I57" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J57" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58">
+        <v>17695</v>
+      </c>
+      <c r="B58">
+        <v>292</v>
+      </c>
+      <c r="C58">
+        <v>334</v>
+      </c>
+      <c r="D58">
+        <v>0.02800084287</v>
+      </c>
+      <c r="E58">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F58">
+        <v>246.317661846812</v>
+      </c>
+      <c r="G58">
+        <v>0.4971344756238503</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45005</v>
+      </c>
+      <c r="I58" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J58" s="3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59">
+        <v>12895</v>
+      </c>
+      <c r="B59">
+        <v>236</v>
+      </c>
+      <c r="C59">
+        <v>334</v>
+      </c>
+      <c r="D59">
+        <v>0.03842527689</v>
+      </c>
+      <c r="E59">
+        <v>0.04192102720720327</v>
+      </c>
+      <c r="F59">
+        <v>45.07770034033625</v>
+      </c>
+      <c r="G59">
+        <v>0.09097527981933751</v>
+      </c>
+      <c r="H59" s="2">
+        <v>44613</v>
+      </c>
+      <c r="I59" s="2">
+        <v>45299</v>
+      </c>
+      <c r="J59" s="3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60">
+        <v>11861</v>
+      </c>
+      <c r="B60">
         <v>335</v>
       </c>
-      <c r="D30">
-        <v>0.0384592208</v>
-      </c>
-      <c r="E30">
-        <v>0.04173235</v>
-      </c>
-      <c r="F30">
-        <v>42.16772348360003</v>
-      </c>
-      <c r="G30">
-        <v>0.08510648764886053</v>
-      </c>
-      <c r="H30" s="2">
-        <v>44627</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="C60">
+        <v>337</v>
+      </c>
+      <c r="D60">
+        <v>0.04177408235</v>
+      </c>
+      <c r="E60">
+        <v>0.04203105</v>
+      </c>
+      <c r="F60">
+        <v>3.047893296650024</v>
+      </c>
+      <c r="G60">
+        <v>0.006151365524849295</v>
+      </c>
+      <c r="H60" s="2">
         <v>45306</v>
       </c>
-      <c r="J30" s="3">
+      <c r="I60" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61">
+        <v>11268</v>
+      </c>
+      <c r="B61">
+        <v>334</v>
+      </c>
+      <c r="C61">
+        <v>337</v>
+      </c>
+      <c r="D61">
+        <v>0.04397293901</v>
+      </c>
+      <c r="E61">
+        <v>0.04203105</v>
+      </c>
+      <c r="F61">
+        <v>-21.88120536467996</v>
+      </c>
+      <c r="G61">
+        <v>-0.04416100114569066</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I61" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J61" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62">
+        <v>11741</v>
+      </c>
+      <c r="B62">
+        <v>243</v>
+      </c>
+      <c r="C62">
+        <v>337</v>
+      </c>
+      <c r="D62">
+        <v>0.04220100884999999</v>
+      </c>
+      <c r="E62">
+        <v>0.04203105</v>
+      </c>
+      <c r="F62">
+        <v>-1.995486857849904</v>
+      </c>
+      <c r="G62">
+        <v>-0.004027364620691753</v>
+      </c>
+      <c r="H62" s="2">
+        <v>44662</v>
+      </c>
+      <c r="I62" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J62" s="3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63">
+        <v>10666</v>
+      </c>
+      <c r="B63">
+        <v>242</v>
+      </c>
+      <c r="C63">
+        <v>337</v>
+      </c>
+      <c r="D63">
+        <v>0.04645376736</v>
+      </c>
+      <c r="E63">
+        <v>0.04203105</v>
+      </c>
+      <c r="F63">
+        <v>-47.17270336175994</v>
+      </c>
+      <c r="G63">
+        <v>-0.09520686074232743</v>
+      </c>
+      <c r="H63" s="2">
+        <v>44655</v>
+      </c>
+      <c r="I63" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J63" s="3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64">
+        <v>10570</v>
+      </c>
+      <c r="B64">
+        <v>241</v>
+      </c>
+      <c r="C64">
+        <v>337</v>
+      </c>
+      <c r="D64">
+        <v>0.04687458776</v>
+      </c>
+      <c r="E64">
+        <v>0.04203105</v>
+      </c>
+      <c r="F64">
+        <v>-51.19619412319995</v>
+      </c>
+      <c r="G64">
+        <v>-0.1033297142750167</v>
+      </c>
+      <c r="H64" s="2">
+        <v>44648</v>
+      </c>
+      <c r="I64" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J64" s="3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65">
+        <v>11996</v>
+      </c>
+      <c r="B65">
+        <v>240</v>
+      </c>
+      <c r="C65">
+        <v>337</v>
+      </c>
+      <c r="D65">
+        <v>0.04130337210999999</v>
+      </c>
+      <c r="E65">
+        <v>0.04203105</v>
+      </c>
+      <c r="F65">
+        <v>8.729223968440087</v>
+      </c>
+      <c r="G65">
+        <v>0.01761788088541638</v>
+      </c>
+      <c r="H65" s="2">
+        <v>44641</v>
+      </c>
+      <c r="I65" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J65" s="3">
         <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66">
+        <v>11770</v>
+      </c>
+      <c r="B66">
+        <v>235</v>
+      </c>
+      <c r="C66">
+        <v>337</v>
+      </c>
+      <c r="D66">
+        <v>0.04209570365</v>
+      </c>
+      <c r="E66">
+        <v>0.04203105</v>
+      </c>
+      <c r="F66">
+        <v>-0.760973460500036</v>
+      </c>
+      <c r="G66">
+        <v>-0.001535872889489087</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44606</v>
+      </c>
+      <c r="I66" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J66" s="3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67">
+        <v>7555</v>
+      </c>
+      <c r="B67">
+        <v>222</v>
+      </c>
+      <c r="C67">
+        <v>337</v>
+      </c>
+      <c r="D67">
+        <v>0.06558462911</v>
+      </c>
+      <c r="E67">
+        <v>0.04203105</v>
+      </c>
+      <c r="F67">
+        <v>-177.94729017605</v>
+      </c>
+      <c r="G67">
+        <v>-0.3591326112479102</v>
+      </c>
+      <c r="H67" s="2">
+        <v>44515</v>
+      </c>
+      <c r="I67" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J67" s="3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68">
+        <v>7823</v>
+      </c>
+      <c r="B68">
+        <v>221</v>
+      </c>
+      <c r="C68">
+        <v>337</v>
+      </c>
+      <c r="D68">
+        <v>0.06333685357999999</v>
+      </c>
+      <c r="E68">
+        <v>0.04203105</v>
+      </c>
+      <c r="F68">
+        <v>-166.6753014063399</v>
+      </c>
+      <c r="G68">
+        <v>-0.3363887275058414</v>
+      </c>
+      <c r="H68" s="2">
+        <v>44508</v>
+      </c>
+      <c r="I68" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J68" s="3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69">
+        <v>8075</v>
+      </c>
+      <c r="B69">
+        <v>220</v>
+      </c>
+      <c r="C69">
+        <v>337</v>
+      </c>
+      <c r="D69">
+        <v>0.06136110980999999</v>
+      </c>
+      <c r="E69">
+        <v>0.04203105</v>
+      </c>
+      <c r="F69">
+        <v>-156.0902329657499</v>
+      </c>
+      <c r="G69">
+        <v>-0.3150213526100497</v>
+      </c>
+      <c r="H69" s="2">
+        <v>44501</v>
+      </c>
+      <c r="I69" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J69" s="3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70">
+        <v>8134</v>
+      </c>
+      <c r="B70">
+        <v>219</v>
+      </c>
+      <c r="C70">
+        <v>337</v>
+      </c>
+      <c r="D70">
+        <v>0.06091307221999999</v>
+      </c>
+      <c r="E70">
+        <v>0.04203105</v>
+      </c>
+      <c r="F70">
+        <v>-153.5863687374799</v>
+      </c>
+      <c r="G70">
+        <v>-0.3099830878962025</v>
+      </c>
+      <c r="H70" s="2">
+        <v>44494</v>
+      </c>
+      <c r="I70" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J70" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71">
+        <v>8045</v>
+      </c>
+      <c r="B71">
+        <v>218</v>
+      </c>
+      <c r="C71">
+        <v>337</v>
+      </c>
+      <c r="D71">
+        <v>0.06158984831999999</v>
+      </c>
+      <c r="E71">
+        <v>0.04203105</v>
+      </c>
+      <c r="F71">
+        <v>-157.3505324843999</v>
+      </c>
+      <c r="G71">
+        <v>-0.3175652945007933</v>
+      </c>
+      <c r="H71" s="2">
+        <v>44487</v>
+      </c>
+      <c r="I71" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J71" s="3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72">
+        <v>8249</v>
+      </c>
+      <c r="B72">
+        <v>191</v>
+      </c>
+      <c r="C72">
+        <v>337</v>
+      </c>
+      <c r="D72">
+        <v>0.0600587988</v>
+      </c>
+      <c r="E72">
+        <v>0.04203105</v>
+      </c>
+      <c r="F72">
+        <v>-148.7108998512</v>
+      </c>
+      <c r="G72">
+        <v>-0.3001683210487387</v>
+      </c>
+      <c r="H72" s="2">
+        <v>44298</v>
+      </c>
+      <c r="I72" s="2">
+        <v>45320</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>
